--- a/biology/Origine et évolution du vivant/Proto-tétrapodes/Proto-tétrapodes.xlsx
+++ b/biology/Origine et évolution du vivant/Proto-tétrapodes/Proto-tétrapodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proto-t%C3%A9trapodes</t>
+          <t>Proto-tétrapodes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tétrapodes-souches
 Les proto-tétrapodes, parfois désigné sous le nom de tétrapodes-souches, désigne un groupe paraphylétique de sarcoptérygiens, composé de tous les animaux plus étroitement liés aux vertébrés à quatre pattes existants qu'à leurs plus proches parents existants, mais à l'exclusion du groupe-couronne Tetrapoda. Le groupe est défini par référence stricte à la phylogénie plutôt qu'aux traits comme dans la systématique traditionnelle. Ainsi, certains sarcoptérygiens à nageoires sont considérés comme des tétrapodes souches.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proto-t%C3%A9trapodes</t>
+          <t>Proto-tétrapodes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Contenu du groupe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tétrapodes souches sont membres du clade Tetrapodomorpha, le groupe total et le taxon qui comprend également leurs descendants, le groupe-couronne des tétrapodes[1].
-Les tétrapodes englobe trois grades distincts successivement plus proches du groupe-couronne Tetrapoda[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tétrapodes souches sont membres du clade Tetrapodomorpha, le groupe total et le taxon qui comprend également leurs descendants, le groupe-couronne des tétrapodes.
+Les tétrapodes englobe trois grades distincts successivement plus proches du groupe-couronne Tetrapoda :
 les Osteolepiformes, un groupe paraphylétique de poissons à nageoires lobées qui comprend les familles Canowindridae, Tristichopteridae, Megalichthyidae et les Osteolepidae ;
 les Elpistostegalia, les poissons à nageoires lobées les plus avancés (Tristichopteridae) et les "ichthyopodes" (tels que Panderichthys et Tiktaalik) ;
-les Ichthyostegalia, les labyrinthodontes primitifs principalement aquatiques tels que Acanthostega, Ichthyostega, Tulerpeton, et probablement les loxommatidés[1].
-Ichthyostegalia et Labyrinthodontia constituent des grades évolutifs paraphylétiques plutôt que des clades, les amniotes et les amphibiens modernes se ramifiant à un moment donné de ces derniers. Les tétrapodes souches peuvent également inclure Temnospondyli et Lepospondyli, selon les auteurs. Cela est dû à l'origine incertaine des amphibiens modernes, dont la position dans l'arbre phylogénétique dicte quelles lignées vont dans le groupe-couronne Tetrapoda[3],[4]. Il n'y a pas non plus pour le moment de consensus sur la phylogénie des tétrapodes souches, ni sur la façon dont les tétrapodes eux-mêmes devraient être définis (c'est-à-dire comme un groupe-couronne, ou comme un groupe basé sur l'apomorphie, en utilisant le membre avec des doigts)[5], contenu du groupe incertain[6],[7],[8].
+les Ichthyostegalia, les labyrinthodontes primitifs principalement aquatiques tels que Acanthostega, Ichthyostega, Tulerpeton, et probablement les loxommatidés.
+Ichthyostegalia et Labyrinthodontia constituent des grades évolutifs paraphylétiques plutôt que des clades, les amniotes et les amphibiens modernes se ramifiant à un moment donné de ces derniers. Les tétrapodes souches peuvent également inclure Temnospondyli et Lepospondyli, selon les auteurs. Cela est dû à l'origine incertaine des amphibiens modernes, dont la position dans l'arbre phylogénétique dicte quelles lignées vont dans le groupe-couronne Tetrapoda,. Il n'y a pas non plus pour le moment de consensus sur la phylogénie des tétrapodes souches, ni sur la façon dont les tétrapodes eux-mêmes devraient être définis (c'est-à-dire comme un groupe-couronne, ou comme un groupe basé sur l'apomorphie, en utilisant le membre avec des doigts), contenu du groupe incertain.
 </t>
         </is>
       </c>
